--- a/aircraft/reports/manufacturer-popularity-share.xlsx
+++ b/aircraft/reports/manufacturer-popularity-share.xlsx
@@ -682,25 +682,25 @@
         <v>2025</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7228915662650602</v>
+        <v>0.7204610951008645</v>
       </c>
       <c r="C8" t="n">
-        <v>42.79518072289157</v>
+        <v>42.69932756964457</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>52.33734939759036</v>
+        <v>52.25744476464938</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5783132530120482</v>
+        <v>0.5763688760806917</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.63855421686747</v>
+        <v>1.633045148895293</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
